--- a/data/pca/factorExposure/factorExposure_2011-12-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01060549949119202</v>
+        <v>-0.01144582304843299</v>
       </c>
       <c r="C2">
-        <v>0.03117019054461915</v>
+        <v>0.02552879810337817</v>
       </c>
       <c r="D2">
-        <v>-0.02109148642894346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02386582190587314</v>
+      </c>
+      <c r="E2">
+        <v>-0.007182353096044611</v>
+      </c>
+      <c r="F2">
+        <v>0.02738582847767681</v>
+      </c>
+      <c r="G2">
+        <v>-0.001141818284243397</v>
+      </c>
+      <c r="H2">
+        <v>0.02604766327659123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07474519720725228</v>
+        <v>-0.08731734082002189</v>
       </c>
       <c r="C4">
-        <v>0.05296768330522566</v>
+        <v>0.0359414700869117</v>
       </c>
       <c r="D4">
-        <v>-0.0799279140133187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07057593520958115</v>
+      </c>
+      <c r="E4">
+        <v>-0.007617465451644794</v>
+      </c>
+      <c r="F4">
+        <v>0.03968874288757863</v>
+      </c>
+      <c r="G4">
+        <v>0.01598040304181568</v>
+      </c>
+      <c r="H4">
+        <v>-0.04074704730086544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.110868073303853</v>
+        <v>-0.1237613619484978</v>
       </c>
       <c r="C6">
-        <v>0.05128609515245178</v>
+        <v>0.03663458622499294</v>
       </c>
       <c r="D6">
-        <v>-0.002985922345375981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.009644385179964866</v>
+      </c>
+      <c r="E6">
+        <v>0.02831182587069988</v>
+      </c>
+      <c r="F6">
+        <v>0.05082975621853319</v>
+      </c>
+      <c r="G6">
+        <v>0.02927683754253948</v>
+      </c>
+      <c r="H6">
+        <v>0.1224390166458727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05572783107029941</v>
+        <v>-0.06444703959400142</v>
       </c>
       <c r="C7">
-        <v>0.03084650652765281</v>
+        <v>0.01568156727089273</v>
       </c>
       <c r="D7">
-        <v>-0.03075028127229089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05026145357449918</v>
+      </c>
+      <c r="E7">
+        <v>-0.03125705895492916</v>
+      </c>
+      <c r="F7">
+        <v>0.04047060321376036</v>
+      </c>
+      <c r="G7">
+        <v>-0.03319083037337545</v>
+      </c>
+      <c r="H7">
+        <v>-0.01852444118040586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03911139699296189</v>
+        <v>-0.04239597624678845</v>
       </c>
       <c r="C8">
-        <v>0.01316036066029398</v>
+        <v>0.009323044641502692</v>
       </c>
       <c r="D8">
-        <v>-0.06127327928702646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02438261333861079</v>
+      </c>
+      <c r="E8">
+        <v>-0.01301852904995056</v>
+      </c>
+      <c r="F8">
+        <v>0.06519097421670424</v>
+      </c>
+      <c r="G8">
+        <v>0.07175958259008265</v>
+      </c>
+      <c r="H8">
+        <v>0.01975597508687811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07090685593827183</v>
+        <v>-0.08022673543128941</v>
       </c>
       <c r="C9">
-        <v>0.03964099659184697</v>
+        <v>0.02364638638327533</v>
       </c>
       <c r="D9">
-        <v>-0.07055299605786659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06313089050305958</v>
+      </c>
+      <c r="E9">
+        <v>-0.02377328802314723</v>
+      </c>
+      <c r="F9">
+        <v>0.03369331176079789</v>
+      </c>
+      <c r="G9">
+        <v>0.03054259281682451</v>
+      </c>
+      <c r="H9">
+        <v>-0.04348972459598079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02992173223055136</v>
+        <v>-0.04502366844231363</v>
       </c>
       <c r="C10">
-        <v>0.02548561306580029</v>
+        <v>0.05768126089776873</v>
       </c>
       <c r="D10">
-        <v>0.1760010981207794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1763852462926851</v>
+      </c>
+      <c r="E10">
+        <v>-0.03972952279113898</v>
+      </c>
+      <c r="F10">
+        <v>0.05140748030433421</v>
+      </c>
+      <c r="G10">
+        <v>-0.03226049028137992</v>
+      </c>
+      <c r="H10">
+        <v>0.05573802926624044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07171388194002859</v>
+        <v>-0.07575186153625499</v>
       </c>
       <c r="C11">
-        <v>0.04298054119153991</v>
+        <v>0.02063443337100004</v>
       </c>
       <c r="D11">
-        <v>-0.05275375863447113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06577803365476345</v>
+      </c>
+      <c r="E11">
+        <v>0.004132443858527627</v>
+      </c>
+      <c r="F11">
+        <v>0.03035141452014084</v>
+      </c>
+      <c r="G11">
+        <v>0.04391449286808682</v>
+      </c>
+      <c r="H11">
+        <v>-0.06923663908462747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06055140287042119</v>
+        <v>-0.06935896882859434</v>
       </c>
       <c r="C12">
-        <v>0.05127179650433789</v>
+        <v>0.0326403260238489</v>
       </c>
       <c r="D12">
-        <v>-0.04399534411174859</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05068319989894419</v>
+      </c>
+      <c r="E12">
+        <v>-0.01181524876737759</v>
+      </c>
+      <c r="F12">
+        <v>0.02302413082027078</v>
+      </c>
+      <c r="G12">
+        <v>0.02559534104086604</v>
+      </c>
+      <c r="H12">
+        <v>-0.03266804741759501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06849817517498551</v>
+        <v>-0.0677675182074028</v>
       </c>
       <c r="C13">
-        <v>0.03427248694465782</v>
+        <v>0.01623381486048476</v>
       </c>
       <c r="D13">
-        <v>-0.04089829364104534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03754203240610166</v>
+      </c>
+      <c r="E13">
+        <v>-0.006371706046024743</v>
+      </c>
+      <c r="F13">
+        <v>0.02794244683301119</v>
+      </c>
+      <c r="G13">
+        <v>0.02704010950329732</v>
+      </c>
+      <c r="H13">
+        <v>-0.04560705239729301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03391972611148044</v>
+        <v>-0.04069306009515778</v>
       </c>
       <c r="C14">
-        <v>0.03590187382975076</v>
+        <v>0.03021118283132751</v>
       </c>
       <c r="D14">
-        <v>0.01158747769646118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01270265735981941</v>
+      </c>
+      <c r="E14">
+        <v>-0.02678114302624467</v>
+      </c>
+      <c r="F14">
+        <v>0.01724780103960435</v>
+      </c>
+      <c r="G14">
+        <v>0.02348220117630756</v>
+      </c>
+      <c r="H14">
+        <v>-0.05362846584223654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.0425576396604414</v>
+        <v>-0.04102893412792527</v>
       </c>
       <c r="C15">
-        <v>0.009667999451996581</v>
+        <v>0.00247441243755864</v>
       </c>
       <c r="D15">
-        <v>-0.01921073746964602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007590077477047662</v>
+      </c>
+      <c r="E15">
+        <v>-0.03716245820678066</v>
+      </c>
+      <c r="F15">
+        <v>0.002534022821709504</v>
+      </c>
+      <c r="G15">
+        <v>0.03468555633302767</v>
+      </c>
+      <c r="H15">
+        <v>-0.0232623877846256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06103017117716293</v>
+        <v>-0.07121192446545685</v>
       </c>
       <c r="C16">
-        <v>0.04092529643353085</v>
+        <v>0.02396598503272402</v>
       </c>
       <c r="D16">
-        <v>-0.04880612351396544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06334419456227051</v>
+      </c>
+      <c r="E16">
+        <v>-0.006452422503550415</v>
+      </c>
+      <c r="F16">
+        <v>0.02943922687631315</v>
+      </c>
+      <c r="G16">
+        <v>0.02476688039335763</v>
+      </c>
+      <c r="H16">
+        <v>-0.0523100921639569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06418484436279275</v>
+        <v>-0.06301602883245734</v>
       </c>
       <c r="C20">
-        <v>0.02708128042683257</v>
+        <v>0.008401826917109405</v>
       </c>
       <c r="D20">
-        <v>-0.04727057105278194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04058860099882697</v>
+      </c>
+      <c r="E20">
+        <v>-0.009014933168181274</v>
+      </c>
+      <c r="F20">
+        <v>0.03034312951786719</v>
+      </c>
+      <c r="G20">
+        <v>0.02371714956103664</v>
+      </c>
+      <c r="H20">
+        <v>-0.04533666430480313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02938743954186862</v>
+        <v>-0.02763290522721216</v>
       </c>
       <c r="C21">
-        <v>0.003278711028627293</v>
+        <v>-0.006020084994384479</v>
       </c>
       <c r="D21">
-        <v>-0.01712446931671928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02122127881411423</v>
+      </c>
+      <c r="E21">
+        <v>-0.04077217586359722</v>
+      </c>
+      <c r="F21">
+        <v>-0.01476460326105781</v>
+      </c>
+      <c r="G21">
+        <v>0.007128595027541127</v>
+      </c>
+      <c r="H21">
+        <v>0.0479589188228496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07969711570227264</v>
+        <v>-0.07070962739633969</v>
       </c>
       <c r="C22">
-        <v>0.05972478448069897</v>
+        <v>0.02957918671761197</v>
       </c>
       <c r="D22">
-        <v>-0.1440602546380811</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1043944914319261</v>
+      </c>
+      <c r="E22">
+        <v>-0.6108837792298125</v>
+      </c>
+      <c r="F22">
+        <v>-0.06226732769801277</v>
+      </c>
+      <c r="G22">
+        <v>-0.1728456168710245</v>
+      </c>
+      <c r="H22">
+        <v>0.1373801293426407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08071247410947203</v>
+        <v>-0.07161547059701338</v>
       </c>
       <c r="C23">
-        <v>0.05828103078305738</v>
+        <v>0.02812010331762355</v>
       </c>
       <c r="D23">
-        <v>-0.14525082128269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1054250881972598</v>
+      </c>
+      <c r="E23">
+        <v>-0.6129587361088255</v>
+      </c>
+      <c r="F23">
+        <v>-0.061594982522535</v>
+      </c>
+      <c r="G23">
+        <v>-0.1668559413546573</v>
+      </c>
+      <c r="H23">
+        <v>0.1333588645512715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07699104235587462</v>
+        <v>-0.08108850915810961</v>
       </c>
       <c r="C24">
-        <v>0.05343172679738679</v>
+        <v>0.03020668456647495</v>
       </c>
       <c r="D24">
-        <v>-0.05606223616437665</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06333660728158881</v>
+      </c>
+      <c r="E24">
+        <v>-0.01104719198042516</v>
+      </c>
+      <c r="F24">
+        <v>0.03783852075918149</v>
+      </c>
+      <c r="G24">
+        <v>0.03890628935711538</v>
+      </c>
+      <c r="H24">
+        <v>-0.0350386327081167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07518451656722722</v>
+        <v>-0.07935936407169099</v>
       </c>
       <c r="C25">
-        <v>0.05403689486193616</v>
+        <v>0.03271233258612518</v>
       </c>
       <c r="D25">
-        <v>-0.05814553431428373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05276759276210836</v>
+      </c>
+      <c r="E25">
+        <v>-0.01898839998725942</v>
+      </c>
+      <c r="F25">
+        <v>0.03403963034864914</v>
+      </c>
+      <c r="G25">
+        <v>0.04987850392031634</v>
+      </c>
+      <c r="H25">
+        <v>-0.039170182500984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04633777777840584</v>
+        <v>-0.04530559503552027</v>
       </c>
       <c r="C26">
-        <v>0.01415277210069594</v>
+        <v>0.003231386060232513</v>
       </c>
       <c r="D26">
-        <v>-0.009411151619617267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02000375077750517</v>
+      </c>
+      <c r="E26">
+        <v>-0.04082326634139578</v>
+      </c>
+      <c r="F26">
+        <v>0.03470527632174665</v>
+      </c>
+      <c r="G26">
+        <v>0.01616178953636176</v>
+      </c>
+      <c r="H26">
+        <v>-0.04628262502605653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04740208836558941</v>
+        <v>-0.07038764874030218</v>
       </c>
       <c r="C28">
-        <v>0.07263580229492952</v>
+        <v>0.1183823437720432</v>
       </c>
       <c r="D28">
-        <v>0.3053003836753442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2968312287805578</v>
+      </c>
+      <c r="E28">
+        <v>-0.03679098417378084</v>
+      </c>
+      <c r="F28">
+        <v>0.05749434254113158</v>
+      </c>
+      <c r="G28">
+        <v>0.01934134860021181</v>
+      </c>
+      <c r="H28">
+        <v>0.04971573379483787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04549560246009284</v>
+        <v>-0.04764852128232626</v>
       </c>
       <c r="C29">
-        <v>0.03238650743280987</v>
+        <v>0.02398861207256577</v>
       </c>
       <c r="D29">
-        <v>-0.0007101792328559223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0122852733669889</v>
+      </c>
+      <c r="E29">
+        <v>-0.05810696195205091</v>
+      </c>
+      <c r="F29">
+        <v>0.0136877013935187</v>
+      </c>
+      <c r="G29">
+        <v>0.01020967391409511</v>
+      </c>
+      <c r="H29">
+        <v>-0.0685202960675883</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1293016565505133</v>
+        <v>-0.1277791814688037</v>
       </c>
       <c r="C30">
-        <v>0.09001100681904604</v>
+        <v>0.05652704943575186</v>
       </c>
       <c r="D30">
-        <v>-0.1142759005248857</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08196405343488895</v>
+      </c>
+      <c r="E30">
+        <v>-0.05425806716902581</v>
+      </c>
+      <c r="F30">
+        <v>0.01502006548208257</v>
+      </c>
+      <c r="G30">
+        <v>0.06343163019449238</v>
+      </c>
+      <c r="H30">
+        <v>0.0378625334841823</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04818976533138243</v>
+        <v>-0.04883643752527295</v>
       </c>
       <c r="C31">
-        <v>0.02186143365888643</v>
+        <v>0.008262274422808651</v>
       </c>
       <c r="D31">
-        <v>-0.02094057260090754</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03518625420624615</v>
+      </c>
+      <c r="E31">
+        <v>-0.02470858349635353</v>
+      </c>
+      <c r="F31">
+        <v>0.008060395056272754</v>
+      </c>
+      <c r="G31">
+        <v>0.001669131414785136</v>
+      </c>
+      <c r="H31">
+        <v>-0.07082725967633226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03628694311032817</v>
+        <v>-0.03905571051082</v>
       </c>
       <c r="C32">
-        <v>0.02234352333074845</v>
+        <v>0.02116569801592408</v>
       </c>
       <c r="D32">
-        <v>-0.02790012792606711</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01133274353892511</v>
+      </c>
+      <c r="E32">
+        <v>-0.05338321405084596</v>
+      </c>
+      <c r="F32">
+        <v>-0.004900840114278024</v>
+      </c>
+      <c r="G32">
+        <v>0.03547775077690508</v>
+      </c>
+      <c r="H32">
+        <v>-0.02673306207482876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08669354074382223</v>
+        <v>-0.09464886693376739</v>
       </c>
       <c r="C33">
-        <v>0.04508961517044587</v>
+        <v>0.02361203976309742</v>
       </c>
       <c r="D33">
-        <v>-0.04756813272578639</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04932893866574374</v>
+      </c>
+      <c r="E33">
+        <v>-0.01452227368156947</v>
+      </c>
+      <c r="F33">
+        <v>0.004199135905605064</v>
+      </c>
+      <c r="G33">
+        <v>0.01684476153979864</v>
+      </c>
+      <c r="H33">
+        <v>-0.06606248782829906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05943282946521666</v>
+        <v>-0.06393309036076907</v>
       </c>
       <c r="C34">
-        <v>0.02343653766231046</v>
+        <v>0.006101943738241435</v>
       </c>
       <c r="D34">
-        <v>-0.05149465444827612</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04974038487348443</v>
+      </c>
+      <c r="E34">
+        <v>-0.006919725087228819</v>
+      </c>
+      <c r="F34">
+        <v>0.02400708546798237</v>
+      </c>
+      <c r="G34">
+        <v>0.03099410563789843</v>
+      </c>
+      <c r="H34">
+        <v>-0.0466255895736785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03697948846619049</v>
+        <v>-0.03827924670722807</v>
       </c>
       <c r="C35">
-        <v>0.01068909674762876</v>
+        <v>0.004134564875568006</v>
       </c>
       <c r="D35">
-        <v>-0.01910682704068895</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01625344985688757</v>
+      </c>
+      <c r="E35">
+        <v>-0.02357417240298993</v>
+      </c>
+      <c r="F35">
+        <v>-0.01709484840435324</v>
+      </c>
+      <c r="G35">
+        <v>-0.003873299262716395</v>
+      </c>
+      <c r="H35">
+        <v>-0.03352790112073211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02498015056277201</v>
+        <v>-0.029100400415954</v>
       </c>
       <c r="C36">
-        <v>0.02020392020991735</v>
+        <v>0.01535326352146898</v>
       </c>
       <c r="D36">
-        <v>-0.01859844541240989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01785847934062261</v>
+      </c>
+      <c r="E36">
+        <v>-0.03050171704025564</v>
+      </c>
+      <c r="F36">
+        <v>0.03067389036772076</v>
+      </c>
+      <c r="G36">
+        <v>0.007088336504499582</v>
+      </c>
+      <c r="H36">
+        <v>-0.04876878774982234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04543183557705995</v>
+        <v>-0.04643127631901676</v>
       </c>
       <c r="C38">
-        <v>0.003691004322987864</v>
+        <v>-0.004036511543094691</v>
       </c>
       <c r="D38">
-        <v>-0.0171180723141614</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01865494374160452</v>
+      </c>
+      <c r="E38">
+        <v>-0.0504741983010729</v>
+      </c>
+      <c r="F38">
+        <v>-0.0009248449441609793</v>
+      </c>
+      <c r="G38">
+        <v>0.006107356852257453</v>
+      </c>
+      <c r="H38">
+        <v>-0.02185348956455439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09019990689477528</v>
+        <v>-0.1000370461893989</v>
       </c>
       <c r="C39">
-        <v>0.06578074247774865</v>
+        <v>0.0422474619755215</v>
       </c>
       <c r="D39">
-        <v>-0.06267611181153675</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.07003968261389644</v>
+      </c>
+      <c r="E39">
+        <v>0.001265964952143832</v>
+      </c>
+      <c r="F39">
+        <v>0.0008818469640198641</v>
+      </c>
+      <c r="G39">
+        <v>0.04794774505681607</v>
+      </c>
+      <c r="H39">
+        <v>-0.02413019535172049</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08088942799955963</v>
+        <v>-0.06277449542645697</v>
       </c>
       <c r="C40">
-        <v>0.03694417104292014</v>
+        <v>0.005230046580751091</v>
       </c>
       <c r="D40">
-        <v>-0.01199425726425217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0337019215530034</v>
+      </c>
+      <c r="E40">
+        <v>-0.03476606598346008</v>
+      </c>
+      <c r="F40">
+        <v>-0.03481766148704316</v>
+      </c>
+      <c r="G40">
+        <v>0.04690301612568294</v>
+      </c>
+      <c r="H40">
+        <v>0.08001702771504748</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04516135469363979</v>
+        <v>-0.04661779922217262</v>
       </c>
       <c r="C41">
-        <v>0.01113833113156619</v>
+        <v>-0.0006691064116699473</v>
       </c>
       <c r="D41">
-        <v>-0.03522165118775581</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03160116603695867</v>
+      </c>
+      <c r="E41">
+        <v>-0.004230315423202551</v>
+      </c>
+      <c r="F41">
+        <v>-0.01462842607213145</v>
+      </c>
+      <c r="G41">
+        <v>0.01045338345846168</v>
+      </c>
+      <c r="H41">
+        <v>-0.02732449512227649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05408564341249381</v>
+        <v>-0.06058403332336314</v>
       </c>
       <c r="C43">
-        <v>0.02751112558634046</v>
+        <v>0.01615829655109531</v>
       </c>
       <c r="D43">
-        <v>-0.0118702529736726</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02846182641343825</v>
+      </c>
+      <c r="E43">
+        <v>-0.02253528659682822</v>
+      </c>
+      <c r="F43">
+        <v>0.01608953828987348</v>
+      </c>
+      <c r="G43">
+        <v>-0.006040910356667858</v>
+      </c>
+      <c r="H43">
+        <v>-0.06410144689435875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09635919057674178</v>
+        <v>-0.09327755388694899</v>
       </c>
       <c r="C44">
-        <v>0.08365603903713321</v>
+        <v>0.05236784814770761</v>
       </c>
       <c r="D44">
-        <v>-0.07663522337626719</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07366897167060719</v>
+      </c>
+      <c r="E44">
+        <v>-0.05864946704740647</v>
+      </c>
+      <c r="F44">
+        <v>0.09329486374375272</v>
+      </c>
+      <c r="G44">
+        <v>0.06933439182089229</v>
+      </c>
+      <c r="H44">
+        <v>-0.07868524758116169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02738749105008931</v>
+        <v>-0.03543204525072312</v>
       </c>
       <c r="C46">
-        <v>0.01763335050726296</v>
+        <v>0.01143071171273284</v>
       </c>
       <c r="D46">
-        <v>-0.03182630941121981</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03665991226968034</v>
+      </c>
+      <c r="E46">
+        <v>-0.03205935245220217</v>
+      </c>
+      <c r="F46">
+        <v>0.01459940512405643</v>
+      </c>
+      <c r="G46">
+        <v>0.004161714476247819</v>
+      </c>
+      <c r="H46">
+        <v>-0.02219008748478707</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03612669850208465</v>
+        <v>-0.04191825803646642</v>
       </c>
       <c r="C47">
-        <v>0.02481185910435486</v>
+        <v>0.01909439210499575</v>
       </c>
       <c r="D47">
-        <v>0.001160688013416137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.007037083502399458</v>
+      </c>
+      <c r="E47">
+        <v>-0.03923148383842016</v>
+      </c>
+      <c r="F47">
+        <v>-0.0107424629841933</v>
+      </c>
+      <c r="G47">
+        <v>-0.02989087524135867</v>
+      </c>
+      <c r="H47">
+        <v>-0.02902675240537476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03654751561001698</v>
+        <v>-0.03981008814296889</v>
       </c>
       <c r="C48">
-        <v>0.02196845994591455</v>
+        <v>0.01293278151767101</v>
       </c>
       <c r="D48">
-        <v>-0.02980325782470583</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02089083302237098</v>
+      </c>
+      <c r="E48">
+        <v>-0.03865793459320922</v>
+      </c>
+      <c r="F48">
+        <v>0.01181346554769094</v>
+      </c>
+      <c r="G48">
+        <v>0.01904476697565407</v>
+      </c>
+      <c r="H48">
+        <v>-0.02735513170470764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1629677764413567</v>
+        <v>-0.1987083452939124</v>
       </c>
       <c r="C49">
-        <v>0.04995272741192877</v>
+        <v>0.0329126529662605</v>
       </c>
       <c r="D49">
-        <v>-0.003300365396865896</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02501418131616813</v>
+      </c>
+      <c r="E49">
+        <v>0.1676160053008379</v>
+      </c>
+      <c r="F49">
+        <v>0.03851485394957599</v>
+      </c>
+      <c r="G49">
+        <v>-0.162375155832238</v>
+      </c>
+      <c r="H49">
+        <v>0.2197527263449524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04284065585244953</v>
+        <v>-0.04537845186433643</v>
       </c>
       <c r="C50">
-        <v>0.02466239311178711</v>
+        <v>0.01296474431195152</v>
       </c>
       <c r="D50">
-        <v>-0.03690411719563734</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04002106358427217</v>
+      </c>
+      <c r="E50">
+        <v>-0.03695032324470617</v>
+      </c>
+      <c r="F50">
+        <v>0.005913536660845728</v>
+      </c>
+      <c r="G50">
+        <v>0.004829700613804303</v>
+      </c>
+      <c r="H50">
+        <v>-0.07947925741099233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02933330966724975</v>
+        <v>-0.03486467389585374</v>
       </c>
       <c r="C51">
-        <v>0.01076511127968489</v>
+        <v>0.00608705414449805</v>
       </c>
       <c r="D51">
-        <v>0.0009264825618155151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0008889130815687273</v>
+      </c>
+      <c r="E51">
+        <v>-0.01056282958378282</v>
+      </c>
+      <c r="F51">
+        <v>0.009997947590533043</v>
+      </c>
+      <c r="G51">
+        <v>-0.01264149072410789</v>
+      </c>
+      <c r="H51">
+        <v>0.01777111527296438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1550632860956462</v>
+        <v>-0.1603651679417245</v>
       </c>
       <c r="C53">
-        <v>0.07395319583712091</v>
+        <v>0.04497194769204258</v>
       </c>
       <c r="D53">
-        <v>0.003369443744072528</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02709928861772653</v>
+      </c>
+      <c r="E53">
+        <v>0.03151073177392082</v>
+      </c>
+      <c r="F53">
+        <v>-0.0005236390503468881</v>
+      </c>
+      <c r="G53">
+        <v>0.02670478090145785</v>
+      </c>
+      <c r="H53">
+        <v>-0.1972130639793722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05774939513072649</v>
+        <v>-0.05797454771778997</v>
       </c>
       <c r="C54">
-        <v>0.02270429425773694</v>
+        <v>0.01240949796476381</v>
       </c>
       <c r="D54">
-        <v>-0.0157276835006745</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01492306100693191</v>
+      </c>
+      <c r="E54">
+        <v>-0.05286991199702565</v>
+      </c>
+      <c r="F54">
+        <v>0.01283256863331569</v>
+      </c>
+      <c r="G54">
+        <v>0.05698399143501307</v>
+      </c>
+      <c r="H54">
+        <v>-0.03524341044300824</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1027550859941081</v>
+        <v>-0.1037733596960437</v>
       </c>
       <c r="C55">
-        <v>0.05250202133386988</v>
+        <v>0.03090540973818147</v>
       </c>
       <c r="D55">
-        <v>-0.01623264282363261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03091521738818683</v>
+      </c>
+      <c r="E55">
+        <v>-0.002791738988381598</v>
+      </c>
+      <c r="F55">
+        <v>0.01372391851739579</v>
+      </c>
+      <c r="G55">
+        <v>0.03107953462350241</v>
+      </c>
+      <c r="H55">
+        <v>-0.1577206427257971</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1508013362375393</v>
+        <v>-0.1569662599771271</v>
       </c>
       <c r="C56">
-        <v>0.0808762661572506</v>
+        <v>0.04856890754569958</v>
       </c>
       <c r="D56">
-        <v>-0.00290361672816018</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04183823127502869</v>
+      </c>
+      <c r="E56">
+        <v>0.01331930553266644</v>
+      </c>
+      <c r="F56">
+        <v>0.02326193464582044</v>
+      </c>
+      <c r="G56">
+        <v>0.03134434980791026</v>
+      </c>
+      <c r="H56">
+        <v>-0.1992568948001101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1326748802907912</v>
+        <v>-0.1006329683640821</v>
       </c>
       <c r="C58">
-        <v>-0.01098445419966795</v>
+        <v>-0.05403637210480224</v>
       </c>
       <c r="D58">
-        <v>-0.04839905839950111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03218831476628586</v>
+      </c>
+      <c r="E58">
+        <v>-0.1230827862581336</v>
+      </c>
+      <c r="F58">
+        <v>0.02446583677970636</v>
+      </c>
+      <c r="G58">
+        <v>-0.09826102851050907</v>
+      </c>
+      <c r="H58">
+        <v>0.1453082155117034</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1215345006347906</v>
+        <v>-0.146409546647033</v>
       </c>
       <c r="C59">
-        <v>0.0772383026991648</v>
+        <v>0.1200209063360842</v>
       </c>
       <c r="D59">
-        <v>0.3949615794754024</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3526665887936253</v>
+      </c>
+      <c r="E59">
+        <v>-0.03313529793422105</v>
+      </c>
+      <c r="F59">
+        <v>0.001954282191749623</v>
+      </c>
+      <c r="G59">
+        <v>-0.004313715803665825</v>
+      </c>
+      <c r="H59">
+        <v>-0.0114217925225622</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2093691540007544</v>
+        <v>-0.2394371448370528</v>
       </c>
       <c r="C60">
-        <v>0.08868043586897097</v>
+        <v>0.05576338533829941</v>
       </c>
       <c r="D60">
-        <v>-0.01484970224426806</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04563768755925982</v>
+      </c>
+      <c r="E60">
+        <v>0.1169302946516304</v>
+      </c>
+      <c r="F60">
+        <v>0.0466525845710987</v>
+      </c>
+      <c r="G60">
+        <v>-0.03567368524670549</v>
+      </c>
+      <c r="H60">
+        <v>0.1421517565635471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08062948711027576</v>
+        <v>-0.08604865708016636</v>
       </c>
       <c r="C61">
-        <v>0.04377254693390928</v>
+        <v>0.02570147099403684</v>
       </c>
       <c r="D61">
-        <v>-0.03492635472420835</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0447491320371385</v>
+      </c>
+      <c r="E61">
+        <v>-0.00582470598001912</v>
+      </c>
+      <c r="F61">
+        <v>0.00497378648678909</v>
+      </c>
+      <c r="G61">
+        <v>0.0318501866532113</v>
+      </c>
+      <c r="H61">
+        <v>-0.06018449680616577</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1331406209121581</v>
+        <v>-0.1362415531214964</v>
       </c>
       <c r="C62">
-        <v>0.05664666223209441</v>
+        <v>0.02579950000771614</v>
       </c>
       <c r="D62">
-        <v>-0.004320513756157462</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04495181486794834</v>
+      </c>
+      <c r="E62">
+        <v>0.04884547366469517</v>
+      </c>
+      <c r="F62">
+        <v>-0.006546664823413676</v>
+      </c>
+      <c r="G62">
+        <v>0.0673642510430202</v>
+      </c>
+      <c r="H62">
+        <v>-0.196973445102453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05293959157410587</v>
+        <v>-0.05170465260146847</v>
       </c>
       <c r="C63">
-        <v>0.02529187715509974</v>
+        <v>0.01454572062907603</v>
       </c>
       <c r="D63">
-        <v>-0.02327542286550028</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02122067190987409</v>
+      </c>
+      <c r="E63">
+        <v>-0.04564115946832107</v>
+      </c>
+      <c r="F63">
+        <v>-0.003761900790432199</v>
+      </c>
+      <c r="G63">
+        <v>0.0275438114706113</v>
+      </c>
+      <c r="H63">
+        <v>-0.03548621287666358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.105463071406075</v>
+        <v>-0.108803272044154</v>
       </c>
       <c r="C64">
-        <v>0.0327007188842477</v>
+        <v>0.01483616571080501</v>
       </c>
       <c r="D64">
-        <v>-0.02454520412702032</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02927900163462498</v>
+      </c>
+      <c r="E64">
+        <v>-0.03569200402853536</v>
+      </c>
+      <c r="F64">
+        <v>0.04265392248409318</v>
+      </c>
+      <c r="G64">
+        <v>0.06243415398623705</v>
+      </c>
+      <c r="H64">
+        <v>-0.0242627923531335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1268077281977831</v>
+        <v>-0.1285842297074071</v>
       </c>
       <c r="C65">
-        <v>0.05664232876892789</v>
+        <v>0.03849851141200931</v>
       </c>
       <c r="D65">
-        <v>-0.0105742898721162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01277576414546689</v>
+      </c>
+      <c r="E65">
+        <v>0.01187458630852542</v>
+      </c>
+      <c r="F65">
+        <v>0.04193605098754081</v>
+      </c>
+      <c r="G65">
+        <v>0.05959843934533485</v>
+      </c>
+      <c r="H65">
+        <v>0.1507559417487752</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1492973378225376</v>
+        <v>-0.1525142110867698</v>
       </c>
       <c r="C66">
-        <v>0.06874142961702362</v>
+        <v>0.03116539733498938</v>
       </c>
       <c r="D66">
-        <v>-0.09673054669918778</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1011930888154764</v>
+      </c>
+      <c r="E66">
+        <v>0.02764864309914625</v>
+      </c>
+      <c r="F66">
+        <v>-0.0005060975933510275</v>
+      </c>
+      <c r="G66">
+        <v>0.07176122029831167</v>
+      </c>
+      <c r="H66">
+        <v>-0.08318499938589323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07654538778268274</v>
+        <v>-0.08589259975019771</v>
       </c>
       <c r="C67">
-        <v>0.01030839586263033</v>
+        <v>-0.00147089237615576</v>
       </c>
       <c r="D67">
-        <v>-0.02182366020564108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03188383552656156</v>
+      </c>
+      <c r="E67">
+        <v>-0.02067087418858914</v>
+      </c>
+      <c r="F67">
+        <v>0.01417952047167663</v>
+      </c>
+      <c r="G67">
+        <v>-0.008824356851423869</v>
+      </c>
+      <c r="H67">
+        <v>-0.02202233845577956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05592146065747785</v>
+        <v>-0.06382648740313825</v>
       </c>
       <c r="C68">
-        <v>0.05054820881020659</v>
+        <v>0.08805086053022376</v>
       </c>
       <c r="D68">
-        <v>0.2599908681691902</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2625253561686511</v>
+      </c>
+      <c r="E68">
+        <v>-0.04613485345962518</v>
+      </c>
+      <c r="F68">
+        <v>0.01624037932780069</v>
+      </c>
+      <c r="G68">
+        <v>0.0010364685701852</v>
+      </c>
+      <c r="H68">
+        <v>-0.01912067367282917</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05433994119960762</v>
+        <v>-0.05303958245691874</v>
       </c>
       <c r="C69">
-        <v>0.01695209974436955</v>
+        <v>0.003409322663248851</v>
       </c>
       <c r="D69">
-        <v>-0.02375320863211823</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01997927342369067</v>
+      </c>
+      <c r="E69">
+        <v>-0.02333442936800634</v>
+      </c>
+      <c r="F69">
+        <v>-0.01401684438937321</v>
+      </c>
+      <c r="G69">
+        <v>0.002666525725692273</v>
+      </c>
+      <c r="H69">
+        <v>-0.04631165312432318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.002807611898262384</v>
+        <v>-0.02780190061552579</v>
       </c>
       <c r="C70">
-        <v>-0.006769981758917431</v>
+        <v>-0.001864972739253035</v>
       </c>
       <c r="D70">
-        <v>0.01306274355340199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.008037080687795151</v>
+      </c>
+      <c r="E70">
+        <v>0.02148196628765827</v>
+      </c>
+      <c r="F70">
+        <v>-0.009399685107002606</v>
+      </c>
+      <c r="G70">
+        <v>-0.02552343167221553</v>
+      </c>
+      <c r="H70">
+        <v>0.03524687241363136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05526841658830836</v>
+        <v>-0.06947923059239262</v>
       </c>
       <c r="C71">
-        <v>0.04993980361202615</v>
+        <v>0.09710085553532337</v>
       </c>
       <c r="D71">
-        <v>0.2939041656196771</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2900551456046665</v>
+      </c>
+      <c r="E71">
+        <v>-0.04372467392297943</v>
+      </c>
+      <c r="F71">
+        <v>0.04477060979772601</v>
+      </c>
+      <c r="G71">
+        <v>0.005753189965193172</v>
+      </c>
+      <c r="H71">
+        <v>-0.01355477874547333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1425684751055697</v>
+        <v>-0.1441854372694309</v>
       </c>
       <c r="C72">
-        <v>0.06119270476146042</v>
+        <v>0.03293640863910349</v>
       </c>
       <c r="D72">
-        <v>0.00443486443970705</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004569305123084391</v>
+      </c>
+      <c r="E72">
+        <v>0.05116571649244005</v>
+      </c>
+      <c r="F72">
+        <v>-0.1570832504792916</v>
+      </c>
+      <c r="G72">
+        <v>0.1170498072884251</v>
+      </c>
+      <c r="H72">
+        <v>0.00764706646866743</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2873605115368541</v>
+        <v>-0.2899611876630557</v>
       </c>
       <c r="C73">
-        <v>0.0919561600278488</v>
+        <v>0.02156407109198341</v>
       </c>
       <c r="D73">
-        <v>-0.04083167495072858</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09416125123255037</v>
+      </c>
+      <c r="E73">
+        <v>0.2571626972639884</v>
+      </c>
+      <c r="F73">
+        <v>0.07616026124331289</v>
+      </c>
+      <c r="G73">
+        <v>-0.2868613897030884</v>
+      </c>
+      <c r="H73">
+        <v>0.3846564483052515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.0842309861966756</v>
+        <v>-0.09232119392336026</v>
       </c>
       <c r="C74">
-        <v>0.07421240289785622</v>
+        <v>0.05325413940227458</v>
       </c>
       <c r="D74">
-        <v>-0.005540198552132065</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03925409717463219</v>
+      </c>
+      <c r="E74">
+        <v>0.00379316855456408</v>
+      </c>
+      <c r="F74">
+        <v>-0.0002610800943645326</v>
+      </c>
+      <c r="G74">
+        <v>-0.01522494459331389</v>
+      </c>
+      <c r="H74">
+        <v>-0.1337295697831379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1006503646852888</v>
+        <v>-0.1032504196186048</v>
       </c>
       <c r="C75">
-        <v>0.04626708727464562</v>
+        <v>0.01992709827841055</v>
       </c>
       <c r="D75">
-        <v>-0.01494508062860943</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0256110225031952</v>
+      </c>
+      <c r="E75">
+        <v>0.000938731935586215</v>
+      </c>
+      <c r="F75">
+        <v>-0.0005326204994109068</v>
+      </c>
+      <c r="G75">
+        <v>-0.001712685857826318</v>
+      </c>
+      <c r="H75">
+        <v>-0.09758340543903354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1335987464206845</v>
+        <v>-0.1424334096585142</v>
       </c>
       <c r="C76">
-        <v>0.07723740346876616</v>
+        <v>0.04899111842268572</v>
       </c>
       <c r="D76">
-        <v>-0.02378083434681747</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05283883236830469</v>
+      </c>
+      <c r="E76">
+        <v>-0.0168211779077102</v>
+      </c>
+      <c r="F76">
+        <v>0.03400864041801002</v>
+      </c>
+      <c r="G76">
+        <v>0.04309603143132312</v>
+      </c>
+      <c r="H76">
+        <v>-0.2170725775619951</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1193992893018767</v>
+        <v>-0.10323641223305</v>
       </c>
       <c r="C77">
-        <v>0.02344339771131076</v>
+        <v>-0.01069915593557177</v>
       </c>
       <c r="D77">
-        <v>-0.08098546354674192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04081240831907507</v>
+      </c>
+      <c r="E77">
+        <v>-0.04643788190293135</v>
+      </c>
+      <c r="F77">
+        <v>0.06097478339968658</v>
+      </c>
+      <c r="G77">
+        <v>0.7690316602953373</v>
+      </c>
+      <c r="H77">
+        <v>0.4099142462975923</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1074798195234757</v>
+        <v>-0.15159374175396</v>
       </c>
       <c r="C78">
-        <v>0.03519686046841863</v>
+        <v>0.02863152242799702</v>
       </c>
       <c r="D78">
-        <v>-0.09641560634473545</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08319608163015081</v>
+      </c>
+      <c r="E78">
+        <v>-0.05073900832578109</v>
+      </c>
+      <c r="F78">
+        <v>0.0568639323283407</v>
+      </c>
+      <c r="G78">
+        <v>0.04781478153731988</v>
+      </c>
+      <c r="H78">
+        <v>0.06972733890208743</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1466174663518219</v>
+        <v>-0.1472750898705389</v>
       </c>
       <c r="C79">
-        <v>0.06628390012367294</v>
+        <v>0.03134221410584246</v>
       </c>
       <c r="D79">
-        <v>-0.02205261983037429</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04019913999730611</v>
+      </c>
+      <c r="E79">
+        <v>0.0157066539289397</v>
+      </c>
+      <c r="F79">
+        <v>0.0193532798389795</v>
+      </c>
+      <c r="G79">
+        <v>0.03829041837024285</v>
+      </c>
+      <c r="H79">
+        <v>-0.1545833535745769</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04147198499919165</v>
+        <v>-0.04235352778822325</v>
       </c>
       <c r="C80">
-        <v>0.01968183302358434</v>
+        <v>0.01163391565721519</v>
       </c>
       <c r="D80">
-        <v>-0.03148513912376425</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01504920230868358</v>
+      </c>
+      <c r="E80">
+        <v>0.0388581303702595</v>
+      </c>
+      <c r="F80">
+        <v>0.002689762906805546</v>
+      </c>
+      <c r="G80">
+        <v>-0.0190701622432942</v>
+      </c>
+      <c r="H80">
+        <v>-0.0422163829156294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1240545369830465</v>
+        <v>-0.1261181944699711</v>
       </c>
       <c r="C81">
-        <v>0.05760144204338709</v>
+        <v>0.03084669946077715</v>
       </c>
       <c r="D81">
-        <v>-0.02640737953676902</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02910791828843038</v>
+      </c>
+      <c r="E81">
+        <v>-0.008223906533598909</v>
+      </c>
+      <c r="F81">
+        <v>0.01364777267959255</v>
+      </c>
+      <c r="G81">
+        <v>-0.003008381579134149</v>
+      </c>
+      <c r="H81">
+        <v>-0.1457587587580705</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1328186613457671</v>
+        <v>-0.1300279836736425</v>
       </c>
       <c r="C82">
-        <v>0.06486634946166005</v>
+        <v>0.03554308699470093</v>
       </c>
       <c r="D82">
-        <v>-0.005487324293166019</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03773427486106581</v>
+      </c>
+      <c r="E82">
+        <v>0.02106957655232358</v>
+      </c>
+      <c r="F82">
+        <v>0.04268617832759965</v>
+      </c>
+      <c r="G82">
+        <v>0.02465942334400771</v>
+      </c>
+      <c r="H82">
+        <v>-0.2144374823255118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0654413977321707</v>
+        <v>-0.08030024978934676</v>
       </c>
       <c r="C83">
-        <v>-0.02727072917281619</v>
+        <v>-0.03769203676372843</v>
       </c>
       <c r="D83">
-        <v>-0.01687019382072751</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0173703444196707</v>
+      </c>
+      <c r="E83">
+        <v>-0.02329541414365359</v>
+      </c>
+      <c r="F83">
+        <v>0.0298061864698574</v>
+      </c>
+      <c r="G83">
+        <v>-0.04213609486040287</v>
+      </c>
+      <c r="H83">
+        <v>0.03049536705139219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02828290291732748</v>
+        <v>-0.03474669691664029</v>
       </c>
       <c r="C84">
-        <v>0.02782372131864836</v>
+        <v>0.01731124981046371</v>
       </c>
       <c r="D84">
-        <v>-0.03467139255946566</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0386380223538245</v>
+      </c>
+      <c r="E84">
+        <v>-0.01951347766802081</v>
+      </c>
+      <c r="F84">
+        <v>-0.03825507532522537</v>
+      </c>
+      <c r="G84">
+        <v>-0.0360221272752765</v>
+      </c>
+      <c r="H84">
+        <v>-0.03651607390202307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1187286001995547</v>
+        <v>-0.1221866100270808</v>
       </c>
       <c r="C85">
-        <v>0.0380932238989885</v>
+        <v>0.01325159498152615</v>
       </c>
       <c r="D85">
-        <v>-0.0510344873914827</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03923062813500644</v>
+      </c>
+      <c r="E85">
+        <v>-0.01707106077954937</v>
+      </c>
+      <c r="F85">
+        <v>0.0342991437268358</v>
+      </c>
+      <c r="G85">
+        <v>-0.001239829281525876</v>
+      </c>
+      <c r="H85">
+        <v>-0.1440722468489491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0525802584267973</v>
+        <v>-0.05626571373707089</v>
       </c>
       <c r="C86">
-        <v>0.02258369271479399</v>
+        <v>0.008181792771413999</v>
       </c>
       <c r="D86">
-        <v>-0.06126686183092551</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03671357194395418</v>
+      </c>
+      <c r="E86">
+        <v>-0.03920617699036379</v>
+      </c>
+      <c r="F86">
+        <v>0.02336081302425186</v>
+      </c>
+      <c r="G86">
+        <v>-0.04632949856155874</v>
+      </c>
+      <c r="H86">
+        <v>0.03837521481480373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1227817762018774</v>
+        <v>-0.125318578795284</v>
       </c>
       <c r="C87">
-        <v>0.06964354493125316</v>
+        <v>0.03216083470216697</v>
       </c>
       <c r="D87">
-        <v>-0.06906971348242558</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06933298490178523</v>
+      </c>
+      <c r="E87">
+        <v>-0.01805526535222915</v>
+      </c>
+      <c r="F87">
+        <v>0.0185478146692651</v>
+      </c>
+      <c r="G87">
+        <v>0.1455608764891682</v>
+      </c>
+      <c r="H87">
+        <v>0.08687840398990369</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05407403035913436</v>
+        <v>-0.062640110867363</v>
       </c>
       <c r="C88">
-        <v>0.02963799858295481</v>
+        <v>0.01840463088037515</v>
       </c>
       <c r="D88">
-        <v>-0.02473453207904158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03891380656635202</v>
+      </c>
+      <c r="E88">
+        <v>-0.007767295571008528</v>
+      </c>
+      <c r="F88">
+        <v>0.01930910274158723</v>
+      </c>
+      <c r="G88">
+        <v>0.01647365844118436</v>
+      </c>
+      <c r="H88">
+        <v>-0.04070549800600418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08555999127823247</v>
+        <v>-0.107097249820065</v>
       </c>
       <c r="C89">
-        <v>0.07375478811175591</v>
+        <v>0.1260278596891002</v>
       </c>
       <c r="D89">
-        <v>0.3226482214308355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3382975637084412</v>
+      </c>
+      <c r="E89">
+        <v>-0.06455826836865648</v>
+      </c>
+      <c r="F89">
+        <v>0.07384903712271496</v>
+      </c>
+      <c r="G89">
+        <v>-0.02081323813250237</v>
+      </c>
+      <c r="H89">
+        <v>-0.01902437454462191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.06691436444646029</v>
+        <v>-0.08355100523417643</v>
       </c>
       <c r="C90">
-        <v>0.05858680332515025</v>
+        <v>0.1004126993674318</v>
       </c>
       <c r="D90">
-        <v>0.2817096612575333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2793688786052996</v>
+      </c>
+      <c r="E90">
+        <v>-0.04993155740973089</v>
+      </c>
+      <c r="F90">
+        <v>0.0321788907521434</v>
+      </c>
+      <c r="G90">
+        <v>0.02756703334793963</v>
+      </c>
+      <c r="H90">
+        <v>0.01145478240378684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.0899501063711379</v>
+        <v>-0.09080139988223926</v>
       </c>
       <c r="C91">
-        <v>0.04888375370666286</v>
+        <v>0.02419021705196661</v>
       </c>
       <c r="D91">
-        <v>-0.01379288038563907</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03302304603241443</v>
+      </c>
+      <c r="E91">
+        <v>-0.007965086255051658</v>
+      </c>
+      <c r="F91">
+        <v>8.368069476087226e-05</v>
+      </c>
+      <c r="G91">
+        <v>-0.01659492766663629</v>
+      </c>
+      <c r="H91">
+        <v>-0.09034408974532324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06931282066651569</v>
+        <v>-0.08417008933095278</v>
       </c>
       <c r="C92">
-        <v>0.0666546635168101</v>
+        <v>0.1162587285474629</v>
       </c>
       <c r="D92">
-        <v>0.334101933890516</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3277369643089373</v>
+      </c>
+      <c r="E92">
+        <v>-0.05110460255096566</v>
+      </c>
+      <c r="F92">
+        <v>0.03681206093874778</v>
+      </c>
+      <c r="G92">
+        <v>0.0008606153819574046</v>
+      </c>
+      <c r="H92">
+        <v>-0.01915079310409134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06194369600463598</v>
+        <v>-0.08129719818566766</v>
       </c>
       <c r="C93">
-        <v>0.06490337265540165</v>
+        <v>0.1132734670095718</v>
       </c>
       <c r="D93">
-        <v>0.302488179908535</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2950267437866974</v>
+      </c>
+      <c r="E93">
+        <v>-0.02626073107893733</v>
+      </c>
+      <c r="F93">
+        <v>0.02809757701039226</v>
+      </c>
+      <c r="G93">
+        <v>0.01795249185184927</v>
+      </c>
+      <c r="H93">
+        <v>-0.004112641852761582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1345448600455409</v>
+        <v>-0.1289423368533602</v>
       </c>
       <c r="C94">
-        <v>0.03910342189861983</v>
+        <v>0.0044597548952738</v>
       </c>
       <c r="D94">
-        <v>-0.04586000454836051</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04983443321028613</v>
+      </c>
+      <c r="E94">
+        <v>0.02009081371677422</v>
+      </c>
+      <c r="F94">
+        <v>0.01513971838732413</v>
+      </c>
+      <c r="G94">
+        <v>-0.03034914238799868</v>
+      </c>
+      <c r="H94">
+        <v>-0.1105990439928338</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1215667653888213</v>
+        <v>-0.1293375958050156</v>
       </c>
       <c r="C95">
-        <v>0.01664535806481101</v>
+        <v>-0.01032359515119141</v>
       </c>
       <c r="D95">
-        <v>-0.05401334206932034</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05739166916640131</v>
+      </c>
+      <c r="E95">
+        <v>-0.005885645073915143</v>
+      </c>
+      <c r="F95">
+        <v>0.04917396944822631</v>
+      </c>
+      <c r="G95">
+        <v>0.02226563238607135</v>
+      </c>
+      <c r="H95">
+        <v>0.09809571208511789</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2198340448450331</v>
+        <v>-0.1950703816085517</v>
       </c>
       <c r="C97">
-        <v>0.03524879067899106</v>
+        <v>-0.01468869320968281</v>
       </c>
       <c r="D97">
-        <v>0.09101351974567168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06795114970190042</v>
+      </c>
+      <c r="E97">
+        <v>0.06401618446840071</v>
+      </c>
+      <c r="F97">
+        <v>-0.9360484932159606</v>
+      </c>
+      <c r="G97">
+        <v>0.04553272222773616</v>
+      </c>
+      <c r="H97">
+        <v>0.02001816723257947</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2438130932501747</v>
+        <v>-0.2738051851296757</v>
       </c>
       <c r="C98">
-        <v>0.05034861856336428</v>
+        <v>0.009646137285523035</v>
       </c>
       <c r="D98">
-        <v>-0.01520001492375178</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04389645520678898</v>
+      </c>
+      <c r="E98">
+        <v>0.1957832786168506</v>
+      </c>
+      <c r="F98">
+        <v>0.03890875799458883</v>
+      </c>
+      <c r="G98">
+        <v>-0.3387983741301846</v>
+      </c>
+      <c r="H98">
+        <v>0.1712688498246517</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.3983849487184825</v>
+        <v>-0.2571959595572323</v>
       </c>
       <c r="C99">
-        <v>-0.8977576394752109</v>
+        <v>-0.9184274175810262</v>
       </c>
       <c r="D99">
-        <v>0.06322961879714664</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.230783085145966</v>
+      </c>
+      <c r="E99">
+        <v>-0.07022881365902971</v>
+      </c>
+      <c r="F99">
+        <v>0.07934242962673875</v>
+      </c>
+      <c r="G99">
+        <v>0.02027913784559762</v>
+      </c>
+      <c r="H99">
+        <v>-0.07255093863985658</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0453182236878483</v>
+        <v>-0.04757445304612724</v>
       </c>
       <c r="C101">
-        <v>0.03253541561041444</v>
+        <v>0.02422081911248204</v>
       </c>
       <c r="D101">
-        <v>-0.001408618034074174</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01259042532729164</v>
+      </c>
+      <c r="E101">
+        <v>-0.05809322262347898</v>
+      </c>
+      <c r="F101">
+        <v>0.01330593372423159</v>
+      </c>
+      <c r="G101">
+        <v>0.009094150093545901</v>
+      </c>
+      <c r="H101">
+        <v>-0.06782840532448202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
